--- a/keywords.xlsx
+++ b/keywords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jangseong-won/myproject/easy_work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F74545-5DF0-2C4C-AF9D-598DA1CC2399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27AD1CD-6893-254C-8774-35DB2CEFE1BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{507F94DB-8A3A-624F-B430-EDEA05C5B250}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>키워드목록</t>
   </si>
@@ -49,24 +49,6 @@
   </si>
   <si>
     <t>화장품</t>
-  </si>
-  <si>
-    <t>아하</t>
-  </si>
-  <si>
-    <t>밥솥</t>
-  </si>
-  <si>
-    <t>크크</t>
-  </si>
-  <si>
-    <t>미혜</t>
-  </si>
-  <si>
-    <t>성원</t>
-  </si>
-  <si>
-    <t>루팡</t>
   </si>
 </sst>
 </file>
@@ -447,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5621DA1-B918-F447-9452-990A786B047E}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -481,36 +463,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
